--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.391327</v>
+        <v>0.263451</v>
       </c>
       <c r="H2">
-        <v>1.173981</v>
+        <v>0.790353</v>
       </c>
       <c r="I2">
-        <v>0.2020349760212956</v>
+        <v>0.1456293935328523</v>
       </c>
       <c r="J2">
-        <v>0.2020349760212956</v>
+        <v>0.1456293935328523</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>45.802697705101</v>
+        <v>20.30931201169</v>
       </c>
       <c r="R2">
-        <v>412.224279345909</v>
+        <v>182.78380810521</v>
       </c>
       <c r="S2">
-        <v>0.0655677370354345</v>
+        <v>0.03500663643589957</v>
       </c>
       <c r="T2">
-        <v>0.06556773703543449</v>
+        <v>0.03500663643589957</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.391327</v>
+        <v>0.263451</v>
       </c>
       <c r="H3">
-        <v>1.173981</v>
+        <v>0.790353</v>
       </c>
       <c r="I3">
-        <v>0.2020349760212956</v>
+        <v>0.1456293935328523</v>
       </c>
       <c r="J3">
-        <v>0.2020349760212956</v>
+        <v>0.1456293935328523</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>39.75101126954133</v>
+        <v>26.761362415504</v>
       </c>
       <c r="R3">
-        <v>357.759101425872</v>
+        <v>240.852261739536</v>
       </c>
       <c r="S3">
-        <v>0.05690459262017681</v>
+        <v>0.04612786903217897</v>
       </c>
       <c r="T3">
-        <v>0.05690459262017679</v>
+        <v>0.04612786903217897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.391327</v>
+        <v>0.263451</v>
       </c>
       <c r="H4">
-        <v>1.173981</v>
+        <v>0.790353</v>
       </c>
       <c r="I4">
-        <v>0.2020349760212956</v>
+        <v>0.1456293935328523</v>
       </c>
       <c r="J4">
-        <v>0.2020349760212956</v>
+        <v>0.1456293935328523</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>55.57891738944533</v>
+        <v>37.417099676656</v>
       </c>
       <c r="R4">
-        <v>500.210256505008</v>
+        <v>336.753897089904</v>
       </c>
       <c r="S4">
-        <v>0.07956264636568428</v>
+        <v>0.06449488806477376</v>
       </c>
       <c r="T4">
-        <v>0.07956264636568426</v>
+        <v>0.06449488806477377</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.6368</v>
       </c>
       <c r="I5">
-        <v>0.7979650239787044</v>
+        <v>0.8543706064671477</v>
       </c>
       <c r="J5">
-        <v>0.7979650239787044</v>
+        <v>0.8543706064671478</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>180.9040765728</v>
+        <v>119.149567264</v>
       </c>
       <c r="R5">
-        <v>1628.1366891552</v>
+        <v>1072.346105376</v>
       </c>
       <c r="S5">
-        <v>0.258968827507347</v>
+        <v>0.2053750309367828</v>
       </c>
       <c r="T5">
-        <v>0.258968827507347</v>
+        <v>0.2053750309367829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.6368</v>
       </c>
       <c r="I6">
-        <v>0.7979650239787044</v>
+        <v>0.8543706064671477</v>
       </c>
       <c r="J6">
-        <v>0.7979650239787044</v>
+        <v>0.8543706064671478</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>157.0021057024</v>
@@ -818,10 +818,10 @@
         <v>1413.0189513216</v>
       </c>
       <c r="S6">
-        <v>0.2247525428956992</v>
+        <v>0.2706204735458808</v>
       </c>
       <c r="T6">
-        <v>0.2247525428956992</v>
+        <v>0.2706204735458808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.6368</v>
       </c>
       <c r="I7">
-        <v>0.7979650239787044</v>
+        <v>0.8543706064671477</v>
       </c>
       <c r="J7">
-        <v>0.7979650239787044</v>
+        <v>0.8543706064671478</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>219.5166055936</v>
@@ -880,10 +880,10 @@
         <v>1975.6494503424</v>
       </c>
       <c r="S7">
-        <v>0.3142436535756583</v>
+        <v>0.3783751019844842</v>
       </c>
       <c r="T7">
-        <v>0.3142436535756583</v>
+        <v>0.3783751019844842</v>
       </c>
     </row>
   </sheetData>
